--- a/kindness-saga/extra/timeline.xlsx
+++ b/kindness-saga/extra/timeline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -85,21 +85,39 @@
     <t xml:space="preserve">Alexei Volkov</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 59</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naomi Kim</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 69</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arthur Starling </t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 62.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">David Lysandra</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 71</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seraphine Starling </t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 60</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soren Socrates </t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 38</t>
+  </si>
+  <si>
     <t xml:space="preserve">Persephone Philomela</t>
   </si>
   <si>
@@ -112,19 +130,34 @@
     <t xml:space="preserve">Clara Foster</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jenny Moore</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martin Moore</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 64</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katy Moore</t>
   </si>
   <si>
+    <t xml:space="preserve">Dead at 13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parthenius Lysandra</t>
   </si>
   <si>
     <t xml:space="preserve">Melissa Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead at 35</t>
   </si>
   <si>
     <t xml:space="preserve">Luna Song</t>
@@ -140,11 +173,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,6 +194,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -229,28 +268,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,868 +482,814 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.51"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="n">
+      <c r="H1" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <f aca="false">IF($B3&lt;&gt;"", C$1 + $B3, "")</f>
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">IF($B3&lt;&gt;"", D$1 + $B3, "")</f>
+        <v>35.5</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">IF($B3&lt;&gt;"", E$1 + $B3, "")</f>
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", D$1 + $B3, "")</f>
-        <v>36.5</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", E$1 + $B3, "")</f>
+      <c r="F3" s="5" t="n">
+        <f aca="false">IF($B3&lt;&gt;"", F$1 + $B3, "")</f>
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", F$1 + $B3, "")</f>
+      <c r="G3" s="5" t="n">
+        <f aca="false">IF($B3&lt;&gt;"", G$1 + $B3, "")</f>
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", G$1 + $B3, "")</f>
-        <v>39</v>
-      </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <f aca="false">IF($B3&lt;&gt;"", H$1 + $B3, "")</f>
         <v>40</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <f aca="false">IF($B3&lt;&gt;"", I$1 + $B3, "")</f>
         <v>41</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <f aca="false">IF($B3&lt;&gt;"", J$1 + $B3, "")</f>
         <v>50</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <f aca="false">IF($B3&lt;&gt;"", K$1 + $B3, "")</f>
         <v>51</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", L$1 + $B3, "")</f>
-        <v>70</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", M$1 + $B3, "")</f>
-        <v>73</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", N$1 + $B3, "")</f>
-        <v>74</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <f aca="false">IF($B3&lt;&gt;"", O$1 + $B3, "")</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="M3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">IF($B4&lt;&gt;"", C$1 + $B4, "")</f>
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">IF($B4&lt;&gt;"", D$1 + $B4, "")</f>
+        <v>32.5</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">IF($B4&lt;&gt;"", E$1 + $B4, "")</f>
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", D$1 + $B4, "")</f>
-        <v>33.5</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", E$1 + $B4, "")</f>
+      <c r="F4" s="5" t="n">
+        <f aca="false">IF($B4&lt;&gt;"", F$1 + $B4, "")</f>
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", F$1 + $B4, "")</f>
+      <c r="G4" s="5" t="n">
+        <f aca="false">IF($B4&lt;&gt;"", G$1 + $B4, "")</f>
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", G$1 + $B4, "")</f>
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <f aca="false">IF($B4&lt;&gt;"", H$1 + $B4, "")</f>
         <v>37</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <f aca="false">IF($B4&lt;&gt;"", I$1 + $B4, "")</f>
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <f aca="false">IF($B4&lt;&gt;"", J$1 + $B4, "")</f>
         <v>47</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <f aca="false">IF($B4&lt;&gt;"", K$1 + $B4, "")</f>
         <v>48</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <f aca="false">IF($B4&lt;&gt;"", L$1 + $B4, "")</f>
         <v>67</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", M$1 + $B4, "")</f>
-        <v>70</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", N$1 + $B4, "")</f>
-        <v>71</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <f aca="false">IF($B4&lt;&gt;"", O$1 + $B4, "")</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="M4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">IF($B5&lt;&gt;"", C$1 + $B5, "")</f>
-        <v>63</v>
-      </c>
-      <c r="D5" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <f aca="false">IF($B5&lt;&gt;"", D$1 + $B5, "")</f>
-        <v>63.5</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", E$1 + $B5, "")</f>
-        <v>64</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", F$1 + $B5, "")</f>
-        <v>65</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", G$1 + $B5, "")</f>
-        <v>66</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", H$1 + $B5, "")</f>
-        <v>67</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", I$1 + $B5, "")</f>
-        <v>68</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", J$1 + $B5, "")</f>
-        <v>77</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", K$1 + $B5, "")</f>
-        <v>78</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", L$1 + $B5, "")</f>
-        <v>97</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", M$1 + $B5, "")</f>
-        <v>100</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", N$1 + $B5, "")</f>
-        <v>101</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <f aca="false">IF($B5&lt;&gt;"", O$1 + $B5, "")</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">IF($B6&lt;&gt;"", C$1 + $B6, "")</f>
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">IF($B6&lt;&gt;"", D$1 + $B6, "")</f>
+        <v>57.5</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">IF($B6&lt;&gt;"", E$1 + $B6, "")</f>
         <v>58</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", D$1 + $B6, "")</f>
-        <v>58.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", E$1 + $B6, "")</f>
+      <c r="F6" s="5" t="n">
+        <f aca="false">IF($B6&lt;&gt;"", F$1 + $B6, "")</f>
         <v>59</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", F$1 + $B6, "")</f>
+      <c r="G6" s="5" t="n">
+        <f aca="false">IF($B6&lt;&gt;"", G$1 + $B6, "")</f>
         <v>60</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", G$1 + $B6, "")</f>
-        <v>61</v>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <f aca="false">IF($B6&lt;&gt;"", H$1 + $B6, "")</f>
         <v>62</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <f aca="false">IF($B6&lt;&gt;"", I$1 + $B6, "")</f>
         <v>63</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", J$1 + $B6, "")</f>
-        <v>72</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", K$1 + $B6, "")</f>
-        <v>73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", L$1 + $B6, "")</f>
-        <v>92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", M$1 + $B6, "")</f>
-        <v>95</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", N$1 + $B6, "")</f>
-        <v>96</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <f aca="false">IF($B6&lt;&gt;"", O$1 + $B6, "")</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="J6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", C$1 + $B7, "")</f>
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", D$1 + $B7, "")</f>
         <v>23.5</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", E$1 + $B7, "")</f>
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", F$1 + $B7, "")</f>
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", G$1 + $B7, "")</f>
         <v>26</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", H$1 + $B7, "")</f>
-        <v>27</v>
-      </c>
-      <c r="I7" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", I$1 + $B7, "")</f>
-        <v>28</v>
-      </c>
-      <c r="J7" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", J$1 + $B7, "")</f>
-        <v>37</v>
-      </c>
-      <c r="K7" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", K$1 + $B7, "")</f>
-        <v>38</v>
-      </c>
-      <c r="L7" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="L7" s="5" t="n">
         <f aca="false">IF($B7&lt;&gt;"", L$1 + $B7, "")</f>
-        <v>57</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <f aca="false">IF($B7&lt;&gt;"", M$1 + $B7, "")</f>
-        <v>60</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">IF($B7&lt;&gt;"", N$1 + $B7, "")</f>
-        <v>61</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <f aca="false">IF($B7&lt;&gt;"", O$1 + $B7, "")</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <f aca="false">IF($B8&lt;&gt;"", C$1 + $B8, "")</f>
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">IF($B8&lt;&gt;"", D$1 + $B8, "")</f>
+        <v>22.5</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">IF($B8&lt;&gt;"", E$1 + $B8, "")</f>
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", D$1 + $B8, "")</f>
-        <v>23.5</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", E$1 + $B8, "")</f>
+      <c r="F8" s="5" t="n">
+        <f aca="false">IF($B8&lt;&gt;"", F$1 + $B8, "")</f>
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", F$1 + $B8, "")</f>
+      <c r="G8" s="5" t="n">
+        <f aca="false">IF($B8&lt;&gt;"", G$1 + $B8, "")</f>
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", G$1 + $B8, "")</f>
-        <v>26</v>
-      </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <f aca="false">IF($B8&lt;&gt;"", H$1 + $B8, "")</f>
         <v>27</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <f aca="false">IF($B8&lt;&gt;"", I$1 + $B8, "")</f>
         <v>28</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="5" t="n">
         <f aca="false">IF($B8&lt;&gt;"", J$1 + $B8, "")</f>
         <v>37</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <f aca="false">IF($B8&lt;&gt;"", K$1 + $B8, "")</f>
         <v>38</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", L$1 + $B8, "")</f>
-        <v>57</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", M$1 + $B8, "")</f>
-        <v>60</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", N$1 + $B8, "")</f>
-        <v>61</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <f aca="false">IF($B8&lt;&gt;"", O$1 + $B8, "")</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="L8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">IF($B9&lt;&gt;"", C$1 + $B9, "")</f>
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", C$1 + $B9, "")</f>
+      <c r="D9" s="5" t="n">
+        <f aca="false">IF($B9&lt;&gt;"", D$1 + $B9, "")</f>
+        <v>22.5</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">IF($B9&lt;&gt;"", E$1 + $B9, "")</f>
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", D$1 + $B9, "")</f>
-        <v>23.5</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", E$1 + $B9, "")</f>
+      <c r="F9" s="5" t="n">
+        <f aca="false">IF($B9&lt;&gt;"", F$1 + $B9, "")</f>
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", F$1 + $B9, "")</f>
+      <c r="G9" s="5" t="n">
+        <f aca="false">IF($B9&lt;&gt;"", G$1 + $B9, "")</f>
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", G$1 + $B9, "")</f>
-        <v>26</v>
-      </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <f aca="false">IF($B9&lt;&gt;"", H$1 + $B9, "")</f>
         <v>27</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <f aca="false">IF($B9&lt;&gt;"", I$1 + $B9, "")</f>
         <v>28</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <f aca="false">IF($B9&lt;&gt;"", J$1 + $B9, "")</f>
         <v>37</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <f aca="false">IF($B9&lt;&gt;"", K$1 + $B9, "")</f>
         <v>38</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", L$1 + $B9, "")</f>
-        <v>57</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", M$1 + $B9, "")</f>
-        <v>60</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", N$1 + $B9, "")</f>
-        <v>61</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <f aca="false">IF($B9&lt;&gt;"", O$1 + $B9, "")</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="L9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">IF($B10&lt;&gt;"", C$1 + $B10, "")</f>
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">IF($B10&lt;&gt;"", D$1 + $B10, "")</f>
+        <v>22.5</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">IF($B10&lt;&gt;"", E$1 + $B10, "")</f>
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", C$1 + $B10, "")</f>
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", D$1 + $B10, "")</f>
-        <v>23.5</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", E$1 + $B10, "")</f>
+      <c r="F10" s="5" t="n">
+        <f aca="false">IF($B10&lt;&gt;"", F$1 + $B10, "")</f>
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", F$1 + $B10, "")</f>
+      <c r="G10" s="5" t="n">
+        <f aca="false">IF($B10&lt;&gt;"", G$1 + $B10, "")</f>
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", G$1 + $B10, "")</f>
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <f aca="false">IF($B10&lt;&gt;"", H$1 + $B10, "")</f>
         <v>27</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <f aca="false">IF($B10&lt;&gt;"", I$1 + $B10, "")</f>
         <v>28</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="5" t="n">
         <f aca="false">IF($B10&lt;&gt;"", J$1 + $B10, "")</f>
         <v>37</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <f aca="false">IF($B10&lt;&gt;"", K$1 + $B10, "")</f>
         <v>38</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", L$1 + $B10, "")</f>
-        <v>57</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", M$1 + $B10, "")</f>
-        <v>60</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", N$1 + $B10, "")</f>
-        <v>61</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <f aca="false">IF($B10&lt;&gt;"", O$1 + $B10, "")</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="L10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">IF($B11&lt;&gt;"", C$1 + $B11, "")</f>
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">IF($B11&lt;&gt;"", D$1 + $B11, "")</f>
+        <v>22.5</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">IF($B11&lt;&gt;"", E$1 + $B11, "")</f>
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <f aca="false">IF($B11&lt;&gt;"", F$1 + $B11, "")</f>
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", C$1 + $B11, "")</f>
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", D$1 + $B11, "")</f>
-        <v>23.5</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", E$1 + $B11, "")</f>
-        <v>24</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", F$1 + $B11, "")</f>
+      <c r="G11" s="5" t="n">
+        <f aca="false">IF($B11&lt;&gt;"", G$1 + $B11, "")</f>
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", G$1 + $B11, "")</f>
-        <v>26</v>
-      </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <f aca="false">IF($B11&lt;&gt;"", H$1 + $B11, "")</f>
         <v>27</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="5" t="n">
         <f aca="false">IF($B11&lt;&gt;"", I$1 + $B11, "")</f>
         <v>28</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="5" t="n">
         <f aca="false">IF($B11&lt;&gt;"", J$1 + $B11, "")</f>
         <v>37</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <f aca="false">IF($B11&lt;&gt;"", K$1 + $B11, "")</f>
         <v>38</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", L$1 + $B11, "")</f>
-        <v>57</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", M$1 + $B11, "")</f>
-        <v>60</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", N$1 + $B11, "")</f>
-        <v>61</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <f aca="false">IF($B11&lt;&gt;"", O$1 + $B11, "")</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="L11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", C$1 + $B12, "")</f>
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", D$1 + $B12, "")</f>
         <v>24.5</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", E$1 + $B12, "")</f>
         <v>25</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", F$1 + $B12, "")</f>
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", G$1 + $B12, "")</f>
         <v>27</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", H$1 + $B12, "")</f>
-        <v>28</v>
-      </c>
-      <c r="I12" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", I$1 + $B12, "")</f>
-        <v>29</v>
-      </c>
-      <c r="J12" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", J$1 + $B12, "")</f>
-        <v>38</v>
-      </c>
-      <c r="K12" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5" t="n">
         <f aca="false">IF($B12&lt;&gt;"", K$1 + $B12, "")</f>
-        <v>39</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <f aca="false">IF($B12&lt;&gt;"", L$1 + $B12, "")</f>
-        <v>58</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <f aca="false">IF($B12&lt;&gt;"", M$1 + $B12, "")</f>
-        <v>61</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">IF($B12&lt;&gt;"", N$1 + $B12, "")</f>
-        <v>62</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <f aca="false">IF($B12&lt;&gt;"", O$1 + $B12, "")</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", C$1 + $B13, "")</f>
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", D$1 + $B13, "")</f>
         <v>26.5</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", E$1 + $B13, "")</f>
         <v>27</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", F$1 + $B13, "")</f>
         <v>28</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", G$1 + $B13, "")</f>
         <v>29</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", H$1 + $B13, "")</f>
-        <v>30</v>
-      </c>
-      <c r="I13" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", I$1 + $B13, "")</f>
-        <v>31</v>
-      </c>
-      <c r="J13" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", J$1 + $B13, "")</f>
-        <v>40</v>
-      </c>
-      <c r="K13" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K13" s="5" t="n">
         <f aca="false">IF($B13&lt;&gt;"", K$1 + $B13, "")</f>
-        <v>41</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">IF($B13&lt;&gt;"", L$1 + $B13, "")</f>
-        <v>60</v>
-      </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">IF($B13&lt;&gt;"", M$1 + $B13, "")</f>
-        <v>63</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">IF($B13&lt;&gt;"", N$1 + $B13, "")</f>
-        <v>64</v>
-      </c>
-      <c r="O13" s="4" t="n">
-        <f aca="false">IF($B13&lt;&gt;"", O$1 + $B13, "")</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", C$1 + $B14, "")</f>
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", D$1 + $B14, "")</f>
         <v>28.5</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", E$1 + $B14, "")</f>
         <v>29</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", F$1 + $B14, "")</f>
         <v>30</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", G$1 + $B14, "")</f>
         <v>31</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", H$1 + $B14, "")</f>
-        <v>32</v>
-      </c>
-      <c r="I14" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", I$1 + $B14, "")</f>
-        <v>33</v>
-      </c>
-      <c r="J14" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", J$1 + $B14, "")</f>
-        <v>42</v>
-      </c>
-      <c r="K14" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", K$1 + $B14, "")</f>
-        <v>43</v>
-      </c>
-      <c r="L14" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="L14" s="5" t="n">
         <f aca="false">IF($B14&lt;&gt;"", L$1 + $B14, "")</f>
-        <v>62</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">IF($B14&lt;&gt;"", M$1 + $B14, "")</f>
-        <v>65</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">IF($B14&lt;&gt;"", N$1 + $B14, "")</f>
-        <v>66</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <f aca="false">IF($B14&lt;&gt;"", O$1 + $B14, "")</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>-25</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <f aca="false">IF($B15&lt;&gt;"", C$1 + $B15, "")</f>
-        <v>-2</v>
-      </c>
-      <c r="D15" s="4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <f aca="false">IF($B15&lt;&gt;"", D$1 + $B15, "")</f>
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E15" s="5" t="n">
         <f aca="false">IF($B15&lt;&gt;"", E$1 + $B15, "")</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F15" s="5" t="n">
         <f aca="false">IF($B15&lt;&gt;"", F$1 + $B15, "")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">IF($B15&lt;&gt;"", G$1 + $B15, "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="n">
         <f aca="false">IF($B15&lt;&gt;"", H$1 + $B15, "")</f>
@@ -1318,49 +1307,45 @@
         <f aca="false">IF($B15&lt;&gt;"", K$1 + $B15, "")</f>
         <v>13</v>
       </c>
-      <c r="L15" s="5" t="n">
-        <f aca="false">IF($B15&lt;&gt;"", L$1 + $B15, "")</f>
-        <v>32</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <f aca="false">IF($B15&lt;&gt;"", M$1 + $B15, "")</f>
-        <v>35</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <f aca="false">IF($B15&lt;&gt;"", N$1 + $B15, "")</f>
-        <v>36</v>
-      </c>
-      <c r="O15" s="5" t="n">
-        <f aca="false">IF($B15&lt;&gt;"", O$1 + $B15, "")</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="L15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>-28</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <f aca="false">IF($B16&lt;&gt;"", C$1 + $B16, "")</f>
-        <v>-5</v>
-      </c>
-      <c r="D16" s="4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <f aca="false">IF($B16&lt;&gt;"", D$1 + $B16, "")</f>
-        <v>-4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="E16" s="5" t="n">
         <f aca="false">IF($B16&lt;&gt;"", E$1 + $B16, "")</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F16" s="5" t="n">
         <f aca="false">IF($B16&lt;&gt;"", F$1 + $B16, "")</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">IF($B16&lt;&gt;"", G$1 + $B16, "")</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H16" s="5" t="n">
         <f aca="false">IF($B16&lt;&gt;"", H$1 + $B16, "")</f>
@@ -1395,32 +1380,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="n">
+    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>-26</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <f aca="false">IF($B17&lt;&gt;"", C$1 + $B17, "")</f>
-        <v>-3</v>
-      </c>
-      <c r="D17" s="4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <f aca="false">IF($B17&lt;&gt;"", D$1 + $B17, "")</f>
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E17" s="5" t="n">
         <f aca="false">IF($B17&lt;&gt;"", E$1 + $B17, "")</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F17" s="5" t="n">
         <f aca="false">IF($B17&lt;&gt;"", F$1 + $B17, "")</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G17" s="5" t="n">
         <f aca="false">IF($B17&lt;&gt;"", G$1 + $B17, "")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="5" t="n">
         <f aca="false">IF($B17&lt;&gt;"", H$1 + $B17, "")</f>
@@ -1450,37 +1435,36 @@
         <f aca="false">IF($B17&lt;&gt;"", N$1 + $B17, "")</f>
         <v>35</v>
       </c>
-      <c r="O17" s="5" t="n">
-        <f aca="false">IF($B17&lt;&gt;"", O$1 + $B17, "")</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="n">
+      <c r="O17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>-27</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <f aca="false">IF($B18&lt;&gt;"", C$1 + $B18, "")</f>
-        <v>-4</v>
-      </c>
-      <c r="D18" s="4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <f aca="false">IF($B18&lt;&gt;"", D$1 + $B18, "")</f>
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="E18" s="5" t="n">
         <f aca="false">IF($B18&lt;&gt;"", E$1 + $B18, "")</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F18" s="5" t="n">
         <f aca="false">IF($B18&lt;&gt;"", F$1 + $B18, "")</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G18" s="5" t="n">
         <f aca="false">IF($B18&lt;&gt;"", G$1 + $B18, "")</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H18" s="5" t="n">
         <f aca="false">IF($B18&lt;&gt;"", H$1 + $B18, "")</f>
@@ -1515,32 +1499,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="n">
+    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>-29</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <f aca="false">IF($B19&lt;&gt;"", C$1 + $B19, "")</f>
-        <v>-6</v>
-      </c>
-      <c r="D19" s="4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <f aca="false">IF($B19&lt;&gt;"", D$1 + $B19, "")</f>
-        <v>-5.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E19" s="5" t="n">
         <f aca="false">IF($B19&lt;&gt;"", E$1 + $B19, "")</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F19" s="5" t="n">
         <f aca="false">IF($B19&lt;&gt;"", F$1 + $B19, "")</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G19" s="5" t="n">
         <f aca="false">IF($B19&lt;&gt;"", G$1 + $B19, "")</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H19" s="5" t="n">
         <f aca="false">IF($B19&lt;&gt;"", H$1 + $B19, "")</f>
